--- a/REGULAR/CENRO/DOCTORA, ZENAIDA.xlsx
+++ b/REGULAR/CENRO/DOCTORA, ZENAIDA.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="265">
   <si>
     <t>PERIOD</t>
   </si>
@@ -825,6 +825,12 @@
   </si>
   <si>
     <t>12/18-22/2023</t>
+  </si>
+  <si>
+    <t>VL(9-0-0)</t>
+  </si>
+  <si>
+    <t>12/28,29/2023,01/10/2024</t>
   </si>
 </sst>
 </file>
@@ -1795,8 +1801,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K453" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
-  <autoFilter ref="A8:K453"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K454" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="A8:K454"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -2156,12 +2162,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K453"/>
+  <dimension ref="A2:K454"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A393" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A390" activePane="bottomLeft"/>
       <selection activeCell="I8" sqref="I8"/>
-      <selection pane="bottomLeft" activeCell="I408" sqref="I408"/>
+      <selection pane="bottomLeft" activeCell="G410" sqref="G410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2322,7 +2328,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>165.16</v>
+        <v>157.41</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2332,7 +2338,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>30.75</v>
+        <v>32</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -10889,13 +10895,15 @@
       <c r="B408" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C408" s="13"/>
+      <c r="C408" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D408" s="39"/>
       <c r="E408" s="9"/>
       <c r="F408" s="20"/>
-      <c r="G408" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G408" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H408" s="39">
         <v>5</v>
@@ -10905,26 +10913,27 @@
       <c r="K408" s="20"/>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A409" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="B409" s="20"/>
+      <c r="A409" s="40"/>
+      <c r="B409" s="20" t="s">
+        <v>263</v>
+      </c>
       <c r="C409" s="13"/>
-      <c r="D409" s="39"/>
+      <c r="D409" s="39">
+        <v>9</v>
+      </c>
       <c r="E409" s="9"/>
       <c r="F409" s="20"/>
-      <c r="G409" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G409" s="13"/>
       <c r="H409" s="39"/>
       <c r="I409" s="9"/>
       <c r="J409" s="11"/>
-      <c r="K409" s="20"/>
+      <c r="K409" s="20" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A410" s="40">
-        <v>45292</v>
+      <c r="A410" s="48" t="s">
+        <v>261</v>
       </c>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -10942,7 +10951,7 @@
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -10960,7 +10969,7 @@
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -10978,7 +10987,7 @@
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
@@ -10996,7 +11005,7 @@
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
@@ -11014,7 +11023,7 @@
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -11032,7 +11041,7 @@
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -11050,7 +11059,7 @@
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -11068,7 +11077,7 @@
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
@@ -11086,7 +11095,7 @@
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -11104,7 +11113,7 @@
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
@@ -11122,7 +11131,7 @@
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -11140,7 +11149,7 @@
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -11158,7 +11167,7 @@
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -11176,7 +11185,7 @@
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -11194,7 +11203,7 @@
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -11212,7 +11221,7 @@
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -11230,7 +11239,7 @@
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -11248,7 +11257,7 @@
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -11266,7 +11275,7 @@
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -11284,7 +11293,7 @@
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -11302,7 +11311,7 @@
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -11320,7 +11329,7 @@
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -11338,7 +11347,7 @@
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -11356,7 +11365,7 @@
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -11374,7 +11383,7 @@
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -11392,7 +11401,7 @@
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -11410,7 +11419,7 @@
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -11428,7 +11437,7 @@
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -11446,7 +11455,7 @@
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -11464,7 +11473,7 @@
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -11482,7 +11491,7 @@
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -11500,7 +11509,7 @@
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -11518,7 +11527,7 @@
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B443" s="20"/>
       <c r="C443" s="13"/>
@@ -11536,7 +11545,7 @@
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
@@ -11554,7 +11563,7 @@
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
@@ -11572,7 +11581,7 @@
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B446" s="20"/>
       <c r="C446" s="13"/>
@@ -11589,7 +11598,9 @@
       <c r="K446" s="20"/>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A447" s="40"/>
+      <c r="A447" s="40">
+        <v>46388</v>
+      </c>
       <c r="B447" s="20"/>
       <c r="C447" s="13"/>
       <c r="D447" s="39"/>
@@ -11685,20 +11696,36 @@
       <c r="K452" s="20"/>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A453" s="41"/>
-      <c r="B453" s="15"/>
-      <c r="C453" s="42"/>
-      <c r="D453" s="43"/>
+      <c r="A453" s="40"/>
+      <c r="B453" s="20"/>
+      <c r="C453" s="13"/>
+      <c r="D453" s="39"/>
       <c r="E453" s="9"/>
-      <c r="F453" s="15"/>
-      <c r="G453" s="42" t="str">
+      <c r="F453" s="20"/>
+      <c r="G453" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H453" s="43"/>
+      <c r="H453" s="39"/>
       <c r="I453" s="9"/>
-      <c r="J453" s="12"/>
-      <c r="K453" s="15"/>
+      <c r="J453" s="11"/>
+      <c r="K453" s="20"/>
+    </row>
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A454" s="41"/>
+      <c r="B454" s="15"/>
+      <c r="C454" s="42"/>
+      <c r="D454" s="43"/>
+      <c r="E454" s="9"/>
+      <c r="F454" s="15"/>
+      <c r="G454" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H454" s="43"/>
+      <c r="I454" s="9"/>
+      <c r="J454" s="12"/>
+      <c r="K454" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -11749,7 +11776,7 @@
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4425" topLeftCell="A55" activePane="bottomLeft"/>
       <selection activeCell="G62" sqref="G62"/>
-      <selection pane="bottomLeft" activeCell="K66" sqref="K66"/>
+      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/REGULAR/CENRO/DOCTORA, ZENAIDA.xlsx
+++ b/REGULAR/CENRO/DOCTORA, ZENAIDA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CENRO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CENRO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DBF4D6-3AD4-47BF-B82B-01ACB44854D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERMANENT" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'CASUAL EMPLOYEE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">PERMANENT!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="265">
   <si>
     <t>PERIOD</t>
   </si>
@@ -836,7 +837,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1784,7 +1785,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1801,26 +1802,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K454" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
-  <autoFilter ref="A8:K454"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K454" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="A8:K454" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1832,26 +1833,26 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K98" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K98"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A8:K98" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K98" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2158,34 +2159,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K454"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A390" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A405" activePane="bottomLeft"/>
       <selection activeCell="I8" sqref="I8"/>
-      <selection pane="bottomLeft" activeCell="G410" sqref="G410"/>
+      <selection pane="bottomLeft" activeCell="K412" sqref="K412"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2206,7 +2207,7 @@
       <c r="J2" s="60"/>
       <c r="K2" s="61"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2226,7 +2227,7 @@
       <c r="J3" s="62"/>
       <c r="K3" s="63"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2246,7 +2247,7 @@
       <c r="J4" s="60"/>
       <c r="K4" s="61"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2254,7 +2255,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2267,7 +2268,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="58" t="s">
@@ -2284,7 +2285,7 @@
       <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2319,7 +2320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2328,7 +2329,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>157.41</v>
+        <v>158.66</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2338,12 +2339,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>32</v>
+        <v>32.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>101</v>
       </c>
@@ -2361,7 +2362,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>36831</v>
       </c>
@@ -2381,7 +2382,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>36861</v>
       </c>
@@ -2401,7 +2402,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="48" t="s">
         <v>111</v>
       </c>
@@ -2419,7 +2420,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>36892</v>
       </c>
@@ -2445,7 +2446,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="23"/>
       <c r="B15" s="20" t="s">
         <v>45</v>
@@ -2462,7 +2463,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="23"/>
       <c r="B16" s="20" t="s">
         <v>116</v>
@@ -2479,7 +2480,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <v>36923</v>
       </c>
@@ -2505,7 +2506,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="23"/>
       <c r="B18" s="20" t="s">
         <v>113</v>
@@ -2524,7 +2525,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <v>36951</v>
       </c>
@@ -2550,7 +2551,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <v>36982</v>
       </c>
@@ -2576,7 +2577,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="23"/>
       <c r="B21" s="20" t="s">
         <v>47</v>
@@ -2595,7 +2596,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="23"/>
       <c r="B22" s="20" t="s">
         <v>91</v>
@@ -2614,7 +2615,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="23"/>
       <c r="B23" s="20" t="s">
         <v>46</v>
@@ -2631,7 +2632,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <v>37012</v>
       </c>
@@ -2659,7 +2660,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
         <v>37043</v>
       </c>
@@ -2679,7 +2680,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <v>37073</v>
       </c>
@@ -2705,7 +2706,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="23"/>
       <c r="B27" s="20" t="s">
         <v>46</v>
@@ -2724,7 +2725,7 @@
         <v>45138</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <v>37104</v>
       </c>
@@ -2752,7 +2753,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="23"/>
       <c r="B29" s="20" t="s">
         <v>126</v>
@@ -2771,7 +2772,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <v>37135</v>
       </c>
@@ -2797,7 +2798,7 @@
         <v>45193</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="23">
         <v>37165</v>
       </c>
@@ -2823,7 +2824,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="23"/>
       <c r="B32" s="20" t="s">
         <v>127</v>
@@ -2844,7 +2845,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23"/>
       <c r="B33" s="20" t="s">
         <v>124</v>
@@ -2863,7 +2864,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="23">
         <v>37196</v>
       </c>
@@ -2889,7 +2890,7 @@
         <v>45253</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
       <c r="B35" s="20" t="s">
         <v>57</v>
@@ -2908,7 +2909,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="23">
         <v>37226</v>
       </c>
@@ -2936,7 +2937,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="48" t="s">
         <v>132</v>
       </c>
@@ -2954,7 +2955,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="23">
         <v>37257</v>
       </c>
@@ -2982,7 +2983,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="23"/>
       <c r="B39" s="20" t="s">
         <v>45</v>
@@ -2999,7 +3000,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="23"/>
       <c r="B40" s="20" t="s">
         <v>45</v>
@@ -3016,7 +3017,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="23">
         <v>37288</v>
       </c>
@@ -3040,7 +3041,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="23"/>
       <c r="B42" s="20" t="s">
         <v>46</v>
@@ -3059,7 +3060,7 @@
         <v>44962</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="23"/>
       <c r="B43" s="20" t="s">
         <v>126</v>
@@ -3080,7 +3081,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="23"/>
       <c r="B44" s="20" t="s">
         <v>126</v>
@@ -3099,7 +3100,7 @@
         <v>44972</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="23"/>
       <c r="B45" s="20" t="s">
         <v>91</v>
@@ -3118,7 +3119,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="23"/>
       <c r="B46" s="20" t="s">
         <v>137</v>
@@ -3137,7 +3138,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="23">
         <v>37316</v>
       </c>
@@ -3157,7 +3158,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="23">
         <v>37347</v>
       </c>
@@ -3177,7 +3178,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
         <v>37377</v>
       </c>
@@ -3197,7 +3198,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="23">
         <v>37408</v>
       </c>
@@ -3217,7 +3218,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
         <v>37438</v>
       </c>
@@ -3237,7 +3238,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
         <v>37469</v>
       </c>
@@ -3257,7 +3258,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="23">
         <v>37500</v>
       </c>
@@ -3277,7 +3278,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="23">
         <v>37530</v>
       </c>
@@ -3303,7 +3304,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="23">
         <v>37561</v>
       </c>
@@ -3323,7 +3324,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="23">
         <v>37591</v>
       </c>
@@ -3343,7 +3344,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="48" t="s">
         <v>140</v>
       </c>
@@ -3361,7 +3362,7 @@
       <c r="J57" s="2"/>
       <c r="K57" s="54"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="23">
         <v>37622</v>
       </c>
@@ -3381,7 +3382,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="23">
         <v>37653</v>
       </c>
@@ -3401,7 +3402,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="23">
         <v>37681</v>
       </c>
@@ -3421,7 +3422,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="23">
         <v>37712</v>
       </c>
@@ -3441,7 +3442,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="23">
         <v>37742</v>
       </c>
@@ -3461,7 +3462,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="23">
         <v>37773</v>
       </c>
@@ -3481,7 +3482,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="23">
         <v>37803</v>
       </c>
@@ -3501,7 +3502,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="23">
         <v>37834</v>
       </c>
@@ -3521,7 +3522,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="23">
         <v>37865</v>
       </c>
@@ -3541,7 +3542,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="23">
         <v>37895</v>
       </c>
@@ -3565,7 +3566,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="23">
         <v>37926</v>
       </c>
@@ -3591,7 +3592,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="23">
         <v>37956</v>
       </c>
@@ -3611,7 +3612,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="48" t="s">
         <v>143</v>
       </c>
@@ -3629,7 +3630,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="23">
         <v>37987</v>
       </c>
@@ -3649,7 +3650,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
         <v>38018</v>
       </c>
@@ -3669,7 +3670,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="23">
         <v>38047</v>
       </c>
@@ -3689,7 +3690,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="23">
         <v>38078</v>
       </c>
@@ -3715,7 +3716,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="23">
         <v>38108</v>
       </c>
@@ -3741,7 +3742,7 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="23"/>
       <c r="B76" s="20" t="s">
         <v>146</v>
@@ -3760,7 +3761,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="23">
         <v>38139</v>
       </c>
@@ -3784,7 +3785,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="23">
         <v>38169</v>
       </c>
@@ -3804,7 +3805,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="23">
         <v>38200</v>
       </c>
@@ -3824,7 +3825,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="23">
         <v>38231</v>
       </c>
@@ -3848,7 +3849,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="23">
         <v>38261</v>
       </c>
@@ -3868,7 +3869,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="23">
         <v>38292</v>
       </c>
@@ -3888,7 +3889,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="23">
         <v>38322</v>
       </c>
@@ -3912,7 +3913,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="48" t="s">
         <v>149</v>
       </c>
@@ -3930,7 +3931,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="23">
         <v>38353</v>
       </c>
@@ -3954,7 +3955,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="23"/>
       <c r="B86" s="20" t="s">
         <v>45</v>
@@ -3971,7 +3972,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="23"/>
       <c r="B87" s="20" t="s">
         <v>45</v>
@@ -3988,7 +3989,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="23">
         <v>38384</v>
       </c>
@@ -4012,7 +4013,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="23">
         <v>38412</v>
       </c>
@@ -4038,7 +4039,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="23"/>
       <c r="B90" s="20" t="s">
         <v>53</v>
@@ -4057,7 +4058,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="23"/>
       <c r="B91" s="20" t="s">
         <v>46</v>
@@ -4076,7 +4077,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="23"/>
       <c r="B92" s="20" t="s">
         <v>152</v>
@@ -4093,7 +4094,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="23">
         <v>38443</v>
       </c>
@@ -4117,7 +4118,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="23">
         <v>38473</v>
       </c>
@@ -4137,7 +4138,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="23">
         <v>38504</v>
       </c>
@@ -4163,7 +4164,7 @@
         <v>45099</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="23">
         <v>38534</v>
       </c>
@@ -4189,7 +4190,7 @@
         <v>45120</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="23"/>
       <c r="B97" s="20" t="s">
         <v>47</v>
@@ -4208,7 +4209,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="23">
         <v>38565</v>
       </c>
@@ -4228,7 +4229,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="23">
         <v>38596</v>
       </c>
@@ -4254,7 +4255,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="23"/>
       <c r="B100" s="20" t="s">
         <v>46</v>
@@ -4273,7 +4274,7 @@
         <v>45193</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="23">
         <v>38626</v>
       </c>
@@ -4299,7 +4300,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="23"/>
       <c r="B102" s="20" t="s">
         <v>48</v>
@@ -4318,7 +4319,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="23">
         <v>38657</v>
       </c>
@@ -4344,7 +4345,7 @@
         <v>45238</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="23">
         <v>38687</v>
       </c>
@@ -4370,7 +4371,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="23"/>
       <c r="B105" s="20" t="s">
         <v>158</v>
@@ -4390,7 +4391,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="48" t="s">
         <v>159</v>
       </c>
@@ -4408,7 +4409,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="23">
         <v>38718</v>
       </c>
@@ -4432,7 +4433,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="23"/>
       <c r="B108" s="20" t="s">
         <v>52</v>
@@ -4451,7 +4452,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="23">
         <v>38749</v>
       </c>
@@ -4475,7 +4476,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="23">
         <v>38777</v>
       </c>
@@ -4501,7 +4502,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
         <v>45</v>
@@ -4518,7 +4519,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="23"/>
       <c r="B112" s="20" t="s">
         <v>162</v>
@@ -4535,7 +4536,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="23">
         <v>38808</v>
       </c>
@@ -4555,7 +4556,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="23">
         <v>38838</v>
       </c>
@@ -4579,7 +4580,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="23">
         <v>38869</v>
       </c>
@@ -4599,7 +4600,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="23">
         <v>38899</v>
       </c>
@@ -4623,7 +4624,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="23">
         <v>38930</v>
       </c>
@@ -4649,7 +4650,7 @@
         <v>45155</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="23">
         <v>38961</v>
       </c>
@@ -4675,7 +4676,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="23"/>
       <c r="B119" s="20" t="s">
         <v>168</v>
@@ -4692,7 +4693,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="23">
         <v>38991</v>
       </c>
@@ -4716,7 +4717,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="23">
         <v>39022</v>
       </c>
@@ -4742,7 +4743,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="23"/>
       <c r="B122" s="20" t="s">
         <v>170</v>
@@ -4759,7 +4760,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="23">
         <v>39052</v>
       </c>
@@ -4783,7 +4784,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="23"/>
       <c r="B124" s="20" t="s">
         <v>173</v>
@@ -4800,7 +4801,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="48" t="s">
         <v>172</v>
       </c>
@@ -4818,7 +4819,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="23">
         <v>39083</v>
       </c>
@@ -4844,7 +4845,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
         <v>46</v>
@@ -4863,7 +4864,7 @@
         <v>44954</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="23"/>
       <c r="B128" s="20" t="s">
         <v>47</v>
@@ -4882,7 +4883,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="23"/>
       <c r="B129" s="20" t="s">
         <v>174</v>
@@ -4899,7 +4900,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="23">
         <v>39114</v>
       </c>
@@ -4919,7 +4920,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="23">
         <v>39142</v>
       </c>
@@ -4939,7 +4940,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="23">
         <v>39173</v>
       </c>
@@ -4965,7 +4966,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="23">
         <v>39203</v>
       </c>
@@ -4991,7 +4992,7 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="23">
         <v>39234</v>
       </c>
@@ -5017,7 +5018,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="23">
         <v>39264</v>
       </c>
@@ -5037,7 +5038,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="23">
         <v>39295</v>
       </c>
@@ -5061,7 +5062,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="23">
         <v>39326</v>
       </c>
@@ -5081,7 +5082,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="23">
         <v>39356</v>
       </c>
@@ -5107,7 +5108,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="23"/>
       <c r="B139" s="20" t="s">
         <v>87</v>
@@ -5126,7 +5127,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
         <v>48</v>
@@ -5145,7 +5146,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="23"/>
       <c r="B141" s="20" t="s">
         <v>46</v>
@@ -5164,7 +5165,7 @@
         <v>45229</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="23">
         <v>39387</v>
       </c>
@@ -5184,7 +5185,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="23">
         <v>39417</v>
       </c>
@@ -5204,7 +5205,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="48" t="s">
         <v>183</v>
       </c>
@@ -5222,7 +5223,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="23">
         <v>39448</v>
       </c>
@@ -5248,7 +5249,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="23">
         <v>39479</v>
       </c>
@@ -5272,7 +5273,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="23">
         <v>39508</v>
       </c>
@@ -5292,7 +5293,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="23">
         <v>39539</v>
       </c>
@@ -5316,7 +5317,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="23"/>
       <c r="B149" s="20" t="s">
         <v>48</v>
@@ -5335,7 +5336,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="23">
         <v>39569</v>
       </c>
@@ -5355,7 +5356,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="23">
         <v>39600</v>
       </c>
@@ -5375,7 +5376,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="23">
         <v>39630</v>
       </c>
@@ -5401,7 +5402,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="23"/>
       <c r="B153" s="20" t="s">
         <v>47</v>
@@ -5420,7 +5421,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>53</v>
@@ -5439,7 +5440,7 @@
         <v>45142</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="23">
         <v>39661</v>
       </c>
@@ -5465,7 +5466,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>189</v>
@@ -5482,7 +5483,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="23">
         <v>39692</v>
       </c>
@@ -5502,7 +5503,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="23">
         <v>39722</v>
       </c>
@@ -5522,7 +5523,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="23">
         <v>39753</v>
       </c>
@@ -5542,7 +5543,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="23">
         <v>39783</v>
       </c>
@@ -5568,7 +5569,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>48</v>
@@ -5590,7 +5591,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="23"/>
       <c r="B162" s="20" t="s">
         <v>52</v>
@@ -5610,7 +5611,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="48" t="s">
         <v>193</v>
       </c>
@@ -5628,7 +5629,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="23">
         <v>39814</v>
       </c>
@@ -5648,7 +5649,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="23">
         <v>39845</v>
       </c>
@@ -5668,7 +5669,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="23">
         <v>39873</v>
       </c>
@@ -5694,7 +5695,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
         <v>46</v>
@@ -5713,7 +5714,7 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>46</v>
@@ -5732,7 +5733,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="23">
         <v>39904</v>
       </c>
@@ -5752,7 +5753,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="23">
         <v>39934</v>
       </c>
@@ -5772,7 +5773,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="23">
         <v>39965</v>
       </c>
@@ -5798,7 +5799,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>47</v>
@@ -5817,7 +5818,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="23"/>
       <c r="B173" s="20" t="s">
         <v>48</v>
@@ -5836,7 +5837,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
         <v>46</v>
@@ -5855,7 +5856,7 @@
         <v>45103</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="23"/>
       <c r="B175" s="20" t="s">
         <v>46</v>
@@ -5874,7 +5875,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="23"/>
       <c r="B176" s="20" t="s">
         <v>116</v>
@@ -5891,7 +5892,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="23">
         <v>39995</v>
       </c>
@@ -5911,7 +5912,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="23">
         <v>40026</v>
       </c>
@@ -5937,7 +5938,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="23">
         <v>40057</v>
       </c>
@@ -5957,7 +5958,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="23">
         <v>40087</v>
       </c>
@@ -5983,7 +5984,7 @@
         <v>45204</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>47</v>
@@ -6002,7 +6003,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="23">
         <v>40118</v>
       </c>
@@ -6022,7 +6023,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="23">
         <v>40148</v>
       </c>
@@ -6048,7 +6049,7 @@
         <v>45277</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>87</v>
@@ -6068,7 +6069,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="48" t="s">
         <v>200</v>
       </c>
@@ -6086,7 +6087,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="23">
         <v>40179</v>
       </c>
@@ -6108,7 +6109,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="23">
         <v>40210</v>
       </c>
@@ -6134,7 +6135,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
         <v>47</v>
@@ -6153,7 +6154,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="23"/>
       <c r="B189" s="20" t="s">
         <v>56</v>
@@ -6172,7 +6173,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="23">
         <v>40238</v>
       </c>
@@ -6192,7 +6193,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="23">
         <v>40269</v>
       </c>
@@ -6212,7 +6213,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="23">
         <v>40299</v>
       </c>
@@ -6232,7 +6233,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="23">
         <v>40330</v>
       </c>
@@ -6252,7 +6253,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="23">
         <v>40360</v>
       </c>
@@ -6278,7 +6279,7 @@
         <v>45137</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="23">
         <v>40391</v>
       </c>
@@ -6298,7 +6299,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="23">
         <v>40422</v>
       </c>
@@ -6318,7 +6319,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="23">
         <v>40452</v>
       </c>
@@ -6344,7 +6345,7 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="23">
         <v>40483</v>
       </c>
@@ -6370,7 +6371,7 @@
         <v>45238</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="23">
         <v>40513</v>
       </c>
@@ -6396,7 +6397,7 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="48" t="s">
         <v>204</v>
       </c>
@@ -6414,7 +6415,7 @@
       <c r="J200" s="2"/>
       <c r="K200" s="54"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="23">
         <v>40544</v>
       </c>
@@ -6440,7 +6441,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="23"/>
       <c r="B202" s="20" t="s">
         <v>46</v>
@@ -6459,7 +6460,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="23">
         <v>40575</v>
       </c>
@@ -6485,7 +6486,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>46</v>
@@ -6504,7 +6505,7 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="23">
         <v>40603</v>
       </c>
@@ -6530,7 +6531,7 @@
         <v>45009</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="23">
         <v>40634</v>
       </c>
@@ -6556,7 +6557,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="23">
         <v>40664</v>
       </c>
@@ -6582,7 +6583,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
         <v>46</v>
@@ -6601,7 +6602,7 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
         <v>46</v>
@@ -6618,7 +6619,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="23">
         <v>40695</v>
       </c>
@@ -6638,7 +6639,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="23">
         <v>40725</v>
       </c>
@@ -6664,7 +6665,7 @@
         <v>45108</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="23">
         <v>40756</v>
       </c>
@@ -6690,7 +6691,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="23">
         <v>40787</v>
       </c>
@@ -6710,7 +6711,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="23">
         <v>40817</v>
       </c>
@@ -6730,7 +6731,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="23">
         <v>40848</v>
       </c>
@@ -6750,7 +6751,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="23">
         <v>40878</v>
       </c>
@@ -6776,7 +6777,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="23"/>
       <c r="B217" s="20" t="s">
         <v>47</v>
@@ -6798,7 +6799,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="48" t="s">
         <v>208</v>
       </c>
@@ -6816,7 +6817,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="23">
         <v>40909</v>
       </c>
@@ -6842,7 +6843,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="23">
         <v>40940</v>
       </c>
@@ -6868,7 +6869,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="23"/>
       <c r="B221" s="20" t="s">
         <v>46</v>
@@ -6887,7 +6888,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="23">
         <v>40969</v>
       </c>
@@ -6913,7 +6914,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="23">
         <v>41000</v>
       </c>
@@ -6939,7 +6940,7 @@
         <v>45040</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="23">
         <v>41030</v>
       </c>
@@ -6959,7 +6960,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="23">
         <v>41061</v>
       </c>
@@ -6983,7 +6984,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="23">
         <v>41091</v>
       </c>
@@ -7003,7 +7004,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="23">
         <v>41122</v>
       </c>
@@ -7023,7 +7024,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="23">
         <v>41153</v>
       </c>
@@ -7049,7 +7050,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="23">
         <v>41183</v>
       </c>
@@ -7069,7 +7070,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="23">
         <v>41214</v>
       </c>
@@ -7089,7 +7090,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="23">
         <v>41244</v>
       </c>
@@ -7113,7 +7114,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="48" t="s">
         <v>213</v>
       </c>
@@ -7131,7 +7132,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="23">
         <v>41275</v>
       </c>
@@ -7155,7 +7156,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="23"/>
       <c r="B234" s="20" t="s">
         <v>46</v>
@@ -7174,7 +7175,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="23">
         <v>41306</v>
       </c>
@@ -7194,7 +7195,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="23">
         <v>41334</v>
       </c>
@@ -7214,7 +7215,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="23">
         <v>41365</v>
       </c>
@@ -7234,7 +7235,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="23">
         <v>41395</v>
       </c>
@@ -7254,7 +7255,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="23">
         <v>41426</v>
       </c>
@@ -7280,7 +7281,7 @@
         <v>45091</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="23">
         <v>41456</v>
       </c>
@@ -7306,7 +7307,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="23"/>
       <c r="B241" s="20" t="s">
         <v>58</v>
@@ -7323,7 +7324,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="23">
         <v>41487</v>
       </c>
@@ -7349,7 +7350,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="23"/>
       <c r="B243" s="20" t="s">
         <v>47</v>
@@ -7368,7 +7369,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="23"/>
       <c r="B244" s="20" t="s">
         <v>48</v>
@@ -7387,7 +7388,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="23">
         <v>41518</v>
       </c>
@@ -7413,7 +7414,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="23">
         <v>41548</v>
       </c>
@@ -7433,7 +7434,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="23">
         <v>41579</v>
       </c>
@@ -7459,7 +7460,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>158</v>
@@ -7478,7 +7479,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="23">
         <v>41609</v>
       </c>
@@ -7504,7 +7505,7 @@
         <v>45271</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="23"/>
       <c r="B250" s="20" t="s">
         <v>46</v>
@@ -7526,7 +7527,7 @@
         <v>45272</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="48" t="s">
         <v>219</v>
       </c>
@@ -7541,7 +7542,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="52"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="23">
         <v>41640</v>
       </c>
@@ -7561,7 +7562,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="52"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="23">
         <v>41671</v>
       </c>
@@ -7587,7 +7588,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="23">
         <v>41699</v>
       </c>
@@ -7613,7 +7614,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="23">
         <v>41730</v>
       </c>
@@ -7633,7 +7634,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="52"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="23">
         <v>41760</v>
       </c>
@@ -7653,7 +7654,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="52"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="23">
         <v>41791</v>
       </c>
@@ -7679,7 +7680,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="23">
         <v>41821</v>
       </c>
@@ -7699,7 +7700,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="52"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="23">
         <v>41852</v>
       </c>
@@ -7719,7 +7720,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="52"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="23">
         <v>41883</v>
       </c>
@@ -7743,7 +7744,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="23">
         <v>41913</v>
       </c>
@@ -7769,7 +7770,7 @@
         <v>45206</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="23">
         <v>41944</v>
       </c>
@@ -7795,7 +7796,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="23">
         <v>41974</v>
       </c>
@@ -7815,7 +7816,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="52"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="48" t="s">
         <v>225</v>
       </c>
@@ -7833,7 +7834,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="52"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="23">
         <v>42005</v>
       </c>
@@ -7853,7 +7854,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="52"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="23">
         <v>42036</v>
       </c>
@@ -7873,7 +7874,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="52"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="23">
         <v>42064</v>
       </c>
@@ -7893,7 +7894,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="52"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="23">
         <v>42095</v>
       </c>
@@ -7913,7 +7914,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="52"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="23">
         <v>42125</v>
       </c>
@@ -7939,7 +7940,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="23">
         <v>42156</v>
       </c>
@@ -7959,7 +7960,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="52"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="23">
         <v>42186</v>
       </c>
@@ -7979,7 +7980,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="52"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="23">
         <v>42217</v>
       </c>
@@ -7999,7 +8000,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="52"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="23">
         <v>42248</v>
       </c>
@@ -8019,7 +8020,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="52"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="23">
         <v>42278</v>
       </c>
@@ -8039,7 +8040,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="52"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="23">
         <v>42309</v>
       </c>
@@ -8059,7 +8060,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="52"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="23">
         <v>42339</v>
       </c>
@@ -8083,7 +8084,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="52"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="48" t="s">
         <v>227</v>
       </c>
@@ -8101,7 +8102,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="52"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="23">
         <v>42370</v>
       </c>
@@ -8127,7 +8128,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
         <v>228</v>
@@ -8144,7 +8145,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="52"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="23">
         <v>42401</v>
       </c>
@@ -8170,7 +8171,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
         <v>230</v>
@@ -8187,7 +8188,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="52"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="23">
         <v>42430</v>
       </c>
@@ -8211,7 +8212,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="52"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="23">
         <v>42461</v>
       </c>
@@ -8235,7 +8236,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="23"/>
       <c r="B284" s="20" t="s">
         <v>232</v>
@@ -8252,7 +8253,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="52"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="23">
         <v>42491</v>
       </c>
@@ -8278,7 +8279,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="23"/>
       <c r="B286" s="20" t="s">
         <v>57</v>
@@ -8297,7 +8298,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="23"/>
       <c r="B287" s="20" t="s">
         <v>57</v>
@@ -8316,7 +8317,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="23"/>
       <c r="B288" s="20" t="s">
         <v>233</v>
@@ -8333,7 +8334,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="52"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="23">
         <v>42522</v>
       </c>
@@ -8353,7 +8354,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="52"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="23">
         <v>42552</v>
       </c>
@@ -8373,7 +8374,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="52"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="23">
         <v>42583</v>
       </c>
@@ -8393,7 +8394,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="52"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="23">
         <v>42614</v>
       </c>
@@ -8419,7 +8420,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="23"/>
       <c r="B293" s="20" t="s">
         <v>47</v>
@@ -8438,7 +8439,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="23">
         <v>42644</v>
       </c>
@@ -8462,7 +8463,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="52"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="23">
         <v>42675</v>
       </c>
@@ -8486,7 +8487,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="52"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="23">
         <v>42705</v>
       </c>
@@ -8510,7 +8511,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="52"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="48" t="s">
         <v>243</v>
       </c>
@@ -8528,7 +8529,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="52"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="23">
         <v>42736</v>
       </c>
@@ -8548,7 +8549,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="52"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="23">
         <v>42767</v>
       </c>
@@ -8568,7 +8569,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="52"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="23">
         <v>42795</v>
       </c>
@@ -8588,7 +8589,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="52"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="23">
         <v>42826</v>
       </c>
@@ -8608,7 +8609,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="52"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="23">
         <v>42856</v>
       </c>
@@ -8628,7 +8629,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="52"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="23">
         <v>42887</v>
       </c>
@@ -8648,7 +8649,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="52"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="23">
         <v>42917</v>
       </c>
@@ -8668,7 +8669,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="52"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="23">
         <v>42948</v>
       </c>
@@ -8694,7 +8695,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="23"/>
       <c r="B306" s="20" t="s">
         <v>48</v>
@@ -8711,7 +8712,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="52"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="23">
         <v>42979</v>
       </c>
@@ -8731,7 +8732,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="52"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="23">
         <v>43009</v>
       </c>
@@ -8757,7 +8758,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="23"/>
       <c r="B309" s="20" t="s">
         <v>46</v>
@@ -8776,7 +8777,7 @@
         <v>45237</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="23"/>
       <c r="B310" s="20" t="s">
         <v>112</v>
@@ -8795,7 +8796,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="23">
         <v>43040</v>
       </c>
@@ -8815,7 +8816,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="52"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="23">
         <v>43070</v>
       </c>
@@ -8841,7 +8842,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="23"/>
       <c r="B313" s="20" t="s">
         <v>158</v>
@@ -8861,7 +8862,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="48" t="s">
         <v>44</v>
       </c>
@@ -8883,7 +8884,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <v>43101</v>
       </c>
@@ -8907,7 +8908,7 @@
         <v>43125</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>46</v>
@@ -8926,7 +8927,7 @@
         <v>43117</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
         <v>43132</v>
       </c>
@@ -8946,7 +8947,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <v>43160</v>
       </c>
@@ -8966,7 +8967,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
         <v>43191</v>
       </c>
@@ -8992,7 +8993,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>46</v>
@@ -9011,7 +9012,7 @@
         <v>43214</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>47</v>
@@ -9030,7 +9031,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <v>43221</v>
       </c>
@@ -9050,7 +9051,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <v>43252</v>
       </c>
@@ -9076,7 +9077,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <v>43282</v>
       </c>
@@ -9096,7 +9097,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <v>43313</v>
       </c>
@@ -9116,7 +9117,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <v>43344</v>
       </c>
@@ -9140,7 +9141,7 @@
         <v>43354</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <v>43374</v>
       </c>
@@ -9160,7 +9161,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <v>43405</v>
       </c>
@@ -9186,7 +9187,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <v>43435</v>
       </c>
@@ -9210,7 +9211,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="48" t="s">
         <v>55</v>
       </c>
@@ -9228,7 +9229,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <v>43466</v>
       </c>
@@ -9252,7 +9253,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>56</v>
@@ -9271,7 +9272,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <v>43497</v>
       </c>
@@ -9291,7 +9292,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <v>43525</v>
       </c>
@@ -9311,7 +9312,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <v>43556</v>
       </c>
@@ -9331,7 +9332,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
         <v>43586</v>
       </c>
@@ -9357,7 +9358,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <v>43617</v>
       </c>
@@ -9383,7 +9384,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>58</v>
@@ -9402,7 +9403,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
         <v>43647</v>
       </c>
@@ -9422,7 +9423,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <v>43678</v>
       </c>
@@ -9448,7 +9449,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>56</v>
@@ -9467,7 +9468,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <v>43709</v>
       </c>
@@ -9491,7 +9492,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <v>43739</v>
       </c>
@@ -9517,7 +9518,7 @@
         <v>43759</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>63</v>
@@ -9536,7 +9537,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <v>43770</v>
       </c>
@@ -9562,7 +9563,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>65</v>
@@ -9581,7 +9582,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <v>43800</v>
       </c>
@@ -9605,7 +9606,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="48" t="s">
         <v>71</v>
       </c>
@@ -9623,7 +9624,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <v>43831</v>
       </c>
@@ -9643,7 +9644,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <v>43862</v>
       </c>
@@ -9663,7 +9664,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <v>43891</v>
       </c>
@@ -9683,7 +9684,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <v>43922</v>
       </c>
@@ -9703,7 +9704,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <v>43952</v>
       </c>
@@ -9723,7 +9724,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <v>43983</v>
       </c>
@@ -9743,7 +9744,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <v>44013</v>
       </c>
@@ -9763,7 +9764,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <v>44044</v>
       </c>
@@ -9783,7 +9784,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <v>44075</v>
       </c>
@@ -9803,7 +9804,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <v>44105</v>
       </c>
@@ -9829,7 +9830,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <v>44136</v>
       </c>
@@ -9849,7 +9850,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <v>44166</v>
       </c>
@@ -9873,7 +9874,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="48" t="s">
         <v>74</v>
       </c>
@@ -9891,7 +9892,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <v>44197</v>
       </c>
@@ -9917,7 +9918,7 @@
         <v>44211</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>45</v>
@@ -9934,7 +9935,7 @@
         <v>44221</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <v>44228</v>
       </c>
@@ -9954,7 +9955,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
         <v>44256</v>
       </c>
@@ -9974,7 +9975,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <v>44287</v>
       </c>
@@ -9994,7 +9995,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <v>44317</v>
       </c>
@@ -10014,7 +10015,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <v>44348</v>
       </c>
@@ -10040,7 +10041,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>48</v>
@@ -10059,7 +10060,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <v>44378</v>
       </c>
@@ -10079,7 +10080,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <v>44409</v>
       </c>
@@ -10099,7 +10100,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <v>44440</v>
       </c>
@@ -10119,7 +10120,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <v>44470</v>
       </c>
@@ -10139,7 +10140,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <v>44501</v>
       </c>
@@ -10165,7 +10166,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <v>44531</v>
       </c>
@@ -10185,7 +10186,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="48" t="s">
         <v>79</v>
       </c>
@@ -10203,7 +10204,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <v>44562</v>
       </c>
@@ -10223,7 +10224,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40">
         <v>44593</v>
       </c>
@@ -10243,7 +10244,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <v>44621</v>
       </c>
@@ -10269,7 +10270,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>254</v>
@@ -10291,7 +10292,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <v>44652</v>
       </c>
@@ -10315,7 +10316,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <v>44682</v>
       </c>
@@ -10339,7 +10340,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>253</v>
@@ -10359,7 +10360,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
         <v>44713</v>
       </c>
@@ -10383,7 +10384,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <v>44743</v>
       </c>
@@ -10403,7 +10404,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <v>44774</v>
       </c>
@@ -10427,7 +10428,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
         <v>44805</v>
       </c>
@@ -10447,7 +10448,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <v>44835</v>
       </c>
@@ -10467,7 +10468,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <v>44866</v>
       </c>
@@ -10493,7 +10494,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>249</v>
@@ -10515,7 +10516,7 @@
         <v>44876</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>250</v>
@@ -10535,7 +10536,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="49"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <v>44896</v>
       </c>
@@ -10559,7 +10560,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>248</v>
@@ -10579,7 +10580,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="48" t="s">
         <v>82</v>
       </c>
@@ -10597,7 +10598,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <v>44927</v>
       </c>
@@ -10621,7 +10622,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <v>44958</v>
       </c>
@@ -10647,7 +10648,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <v>44986</v>
       </c>
@@ -10673,7 +10674,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>47</v>
@@ -10695,7 +10696,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>46</v>
@@ -10717,7 +10718,7 @@
         <v>44987</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
         <v>45017</v>
       </c>
@@ -10737,7 +10738,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
         <v>45047</v>
       </c>
@@ -10763,7 +10764,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <v>45078</v>
       </c>
@@ -10783,7 +10784,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <v>45108</v>
       </c>
@@ -10809,7 +10810,7 @@
         <v>45112</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <v>45139</v>
       </c>
@@ -10829,7 +10830,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <v>45170</v>
       </c>
@@ -10848,7 +10849,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <v>45200</v>
       </c>
@@ -10868,7 +10869,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <v>45231</v>
       </c>
@@ -10888,7 +10889,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
         <v>45261</v>
       </c>
@@ -10912,7 +10913,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>263</v>
@@ -10931,7 +10932,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="48" t="s">
         <v>261</v>
       </c>
@@ -10949,25 +10950,33 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <v>45292</v>
       </c>
-      <c r="B411" s="20"/>
-      <c r="C411" s="13"/>
+      <c r="B411" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C411" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D411" s="39"/>
       <c r="E411" s="9"/>
       <c r="F411" s="20"/>
-      <c r="G411" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H411" s="39"/>
+      <c r="G411" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H411" s="39">
+        <v>1</v>
+      </c>
       <c r="I411" s="9"/>
       <c r="J411" s="11"/>
-      <c r="K411" s="20"/>
-    </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K411" s="49">
+        <v>45317</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
         <v>45323</v>
       </c>
@@ -10985,7 +10994,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <v>45352</v>
       </c>
@@ -11003,7 +11012,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <v>45383</v>
       </c>
@@ -11021,7 +11030,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <v>45413</v>
       </c>
@@ -11039,7 +11048,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
         <v>45444</v>
       </c>
@@ -11057,7 +11066,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
         <v>45474</v>
       </c>
@@ -11075,7 +11084,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
         <v>45505</v>
       </c>
@@ -11093,7 +11102,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <v>45536</v>
       </c>
@@ -11111,7 +11120,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
         <v>45566</v>
       </c>
@@ -11129,7 +11138,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <v>45597</v>
       </c>
@@ -11147,7 +11156,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <v>45627</v>
       </c>
@@ -11165,7 +11174,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40">
         <v>45658</v>
       </c>
@@ -11183,7 +11192,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <v>45689</v>
       </c>
@@ -11201,7 +11210,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <v>45717</v>
       </c>
@@ -11219,7 +11228,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <v>45748</v>
       </c>
@@ -11237,7 +11246,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40">
         <v>45778</v>
       </c>
@@ -11255,7 +11264,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <v>45809</v>
       </c>
@@ -11273,7 +11282,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <v>45839</v>
       </c>
@@ -11291,7 +11300,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <v>45870</v>
       </c>
@@ -11309,7 +11318,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40">
         <v>45901</v>
       </c>
@@ -11327,7 +11336,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <v>45931</v>
       </c>
@@ -11345,7 +11354,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <v>45962</v>
       </c>
@@ -11363,7 +11372,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <v>45992</v>
       </c>
@@ -11381,7 +11390,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <v>46023</v>
       </c>
@@ -11399,7 +11408,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <v>46054</v>
       </c>
@@ -11417,7 +11426,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <v>46082</v>
       </c>
@@ -11435,7 +11444,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
         <v>46113</v>
       </c>
@@ -11453,7 +11462,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <v>46143</v>
       </c>
@@ -11471,7 +11480,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <v>46174</v>
       </c>
@@ -11489,7 +11498,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40">
         <v>46204</v>
       </c>
@@ -11507,7 +11516,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <v>46235</v>
       </c>
@@ -11525,7 +11534,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <v>46266</v>
       </c>
@@ -11543,7 +11552,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <v>46296</v>
       </c>
@@ -11561,7 +11570,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <v>46327</v>
       </c>
@@ -11579,7 +11588,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <v>46357</v>
       </c>
@@ -11597,7 +11606,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <v>46388</v>
       </c>
@@ -11615,7 +11624,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
       <c r="B448" s="20"/>
       <c r="C448" s="13"/>
@@ -11631,7 +11640,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40"/>
       <c r="B449" s="20"/>
       <c r="C449" s="13"/>
@@ -11647,7 +11656,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40"/>
       <c r="B450" s="20"/>
       <c r="C450" s="13"/>
@@ -11663,7 +11672,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40"/>
       <c r="B451" s="20"/>
       <c r="C451" s="13"/>
@@ -11679,7 +11688,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40"/>
       <c r="B452" s="20"/>
       <c r="C452" s="13"/>
@@ -11695,7 +11704,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40"/>
       <c r="B453" s="20"/>
       <c r="C453" s="13"/>
@@ -11711,7 +11720,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="41"/>
       <c r="B454" s="15"/>
       <c r="C454" s="42"/>
@@ -11741,10 +11750,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11767,34 +11776,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K98"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A55" activePane="bottomLeft"/>
+      <pane ySplit="4428" topLeftCell="A55" activePane="bottomLeft"/>
       <selection activeCell="G62" sqref="G62"/>
       <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -11815,7 +11824,7 @@
       <c r="J2" s="60"/>
       <c r="K2" s="61"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -11835,7 +11844,7 @@
       <c r="J3" s="62"/>
       <c r="K3" s="63"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -11855,7 +11864,7 @@
       <c r="J4" s="60"/>
       <c r="K4" s="61"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -11863,7 +11872,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -11876,7 +11885,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="58" t="s">
@@ -11893,7 +11902,7 @@
       <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -11928,7 +11937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -11952,7 +11961,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>88</v>
       </c>
@@ -11970,7 +11979,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>35765</v>
       </c>
@@ -11990,7 +11999,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="48" t="s">
         <v>89</v>
       </c>
@@ -12010,7 +12019,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>35796</v>
       </c>
@@ -12030,7 +12039,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>35827</v>
       </c>
@@ -12050,7 +12059,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>35855</v>
       </c>
@@ -12070,7 +12079,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <v>35886</v>
       </c>
@@ -12090,7 +12099,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <v>35916</v>
       </c>
@@ -12110,7 +12119,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <v>35947</v>
       </c>
@@ -12130,7 +12139,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <v>35977</v>
       </c>
@@ -12150,7 +12159,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <v>36008</v>
       </c>
@@ -12176,7 +12185,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <v>36039</v>
       </c>
@@ -12196,7 +12205,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <v>36069</v>
       </c>
@@ -12216,7 +12225,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <v>36100</v>
       </c>
@@ -12242,7 +12251,7 @@
         <v>45235</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <v>36130</v>
       </c>
@@ -12268,7 +12277,7 @@
         <v>45276</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="23"/>
       <c r="B25" s="20" t="s">
         <v>47</v>
@@ -12290,7 +12299,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="48" t="s">
         <v>93</v>
       </c>
@@ -12308,7 +12317,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="23">
         <v>36161</v>
       </c>
@@ -12328,7 +12337,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <v>36192</v>
       </c>
@@ -12348,7 +12357,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="23">
         <v>36220</v>
       </c>
@@ -12374,7 +12383,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <v>36251</v>
       </c>
@@ -12400,7 +12409,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="23">
         <v>36281</v>
       </c>
@@ -12426,7 +12435,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="23"/>
       <c r="B32" s="20" t="s">
         <v>58</v>
@@ -12445,7 +12454,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23"/>
       <c r="B33" s="20" t="s">
         <v>47</v>
@@ -12464,7 +12473,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="23"/>
       <c r="B34" s="20" t="s">
         <v>46</v>
@@ -12483,7 +12492,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23">
         <v>36312</v>
       </c>
@@ -12503,7 +12512,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="23">
         <v>36342</v>
       </c>
@@ -12523,7 +12532,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
         <v>36373</v>
       </c>
@@ -12543,7 +12552,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="23">
         <v>36404</v>
       </c>
@@ -12569,7 +12578,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="23"/>
       <c r="B39" s="20" t="s">
         <v>84</v>
@@ -12588,7 +12597,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="23"/>
       <c r="B40" s="20" t="s">
         <v>46</v>
@@ -12607,7 +12616,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="23">
         <v>36434</v>
       </c>
@@ -12627,7 +12636,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="23">
         <v>36465</v>
       </c>
@@ -12647,7 +12656,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="23">
         <v>36495</v>
       </c>
@@ -12671,7 +12680,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="48" t="s">
         <v>101</v>
       </c>
@@ -12689,7 +12698,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="23">
         <v>36526</v>
       </c>
@@ -12715,7 +12724,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="23">
         <v>36557</v>
       </c>
@@ -12735,7 +12744,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="23">
         <v>36586</v>
       </c>
@@ -12755,7 +12764,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="23">
         <v>36617</v>
       </c>
@@ -12775,7 +12784,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
         <v>36647</v>
       </c>
@@ -12795,7 +12804,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="23">
         <v>36678</v>
       </c>
@@ -12815,7 +12824,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
         <v>36708</v>
       </c>
@@ -12835,7 +12844,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
         <v>36739</v>
       </c>
@@ -12861,7 +12870,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="23"/>
       <c r="B53" s="20" t="s">
         <v>58</v>
@@ -12880,7 +12889,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="23"/>
       <c r="B54" s="20" t="s">
         <v>106</v>
@@ -12901,7 +12910,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="23">
         <v>36770</v>
       </c>
@@ -12927,7 +12936,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="23"/>
       <c r="B56" s="20" t="s">
         <v>109</v>
@@ -12944,7 +12953,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="23">
         <v>36800</v>
       </c>
@@ -12964,7 +12973,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="48" t="s">
         <v>82</v>
       </c>
@@ -12982,7 +12991,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>45170</v>
       </c>
@@ -13006,7 +13015,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>57</v>
@@ -13028,7 +13037,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>45200</v>
       </c>
@@ -13052,7 +13061,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>46</v>
@@ -13074,7 +13083,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>57</v>
@@ -13096,7 +13105,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>46</v>
@@ -13118,7 +13127,7 @@
         <v>45226</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>45231</v>
       </c>
@@ -13142,7 +13151,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>75</v>
@@ -13164,7 +13173,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -13180,7 +13189,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -13196,7 +13205,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -13212,7 +13221,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -13228,7 +13237,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -13244,7 +13253,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -13260,7 +13269,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -13276,7 +13285,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -13292,7 +13301,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -13308,7 +13317,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -13324,7 +13333,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -13340,7 +13349,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -13356,7 +13365,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -13372,7 +13381,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -13388,7 +13397,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -13404,7 +13413,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -13420,7 +13429,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -13436,7 +13445,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -13452,7 +13461,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -13468,7 +13477,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -13484,7 +13493,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -13500,7 +13509,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -13516,7 +13525,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -13532,7 +13541,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -13548,7 +13557,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -13564,7 +13573,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -13580,7 +13589,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -13596,7 +13605,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -13612,7 +13621,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -13628,7 +13637,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -13644,7 +13653,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -13660,7 +13669,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="41"/>
       <c r="B98" s="15"/>
       <c r="C98" s="42"/>
@@ -13690,10 +13699,10 @@
     <mergeCell ref="J4:K4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13716,28 +13725,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="66" t="s">
         <v>33</v>
       </c>
@@ -13750,7 +13759,7 @@
       <c r="K1" s="67"/>
       <c r="L1" s="67"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -13779,7 +13788,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -13804,17 +13813,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -13835,7 +13844,7 @@
       <c r="K6" s="68"/>
       <c r="L6" s="68"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -13862,7 +13871,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -13888,7 +13897,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -13914,7 +13923,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -13940,7 +13949,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -13966,7 +13975,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -13992,7 +14001,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -14018,7 +14027,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -14044,7 +14053,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -14064,7 +14073,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -14084,7 +14093,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -14104,7 +14113,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -14125,7 +14134,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -14146,7 +14155,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -14167,7 +14176,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -14188,7 +14197,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -14209,7 +14218,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -14230,7 +14239,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -14251,7 +14260,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -14272,7 +14281,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -14293,7 +14302,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -14314,7 +14323,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -14335,7 +14344,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -14356,7 +14365,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -14377,7 +14386,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -14398,7 +14407,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -14419,7 +14428,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -14440,7 +14449,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -14461,7 +14470,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -14482,7 +14491,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -14503,7 +14512,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -14524,7 +14533,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -14533,7 +14542,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -14542,7 +14551,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -14551,7 +14560,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -14560,7 +14569,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -14569,7 +14578,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -14578,7 +14587,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -14587,7 +14596,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -14596,7 +14605,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -14605,7 +14614,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -14614,7 +14623,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -14623,7 +14632,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -14632,7 +14641,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -14641,7 +14650,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -14650,7 +14659,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -14659,7 +14668,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -14668,7 +14677,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -14677,7 +14686,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -14686,7 +14695,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -14695,7 +14704,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -14704,7 +14713,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -14713,7 +14722,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -14722,7 +14731,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -14731,7 +14740,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -14740,7 +14749,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -14749,7 +14758,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -14758,7 +14767,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -14767,7 +14776,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -14776,7 +14785,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -14785,7 +14794,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
